--- a/resources/experiment 1/metrics/MAPE/average time/Retinopatía de fondo.xlsx
+++ b/resources/experiment 1/metrics/MAPE/average time/Retinopatía de fondo.xlsx
@@ -465,10 +465,10 @@
         <v>0.3703749235513687</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3703749235513687</v>
+        <v>0.3703749235513688</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3703749235513687</v>
+        <v>0.3703749235513688</v>
       </c>
     </row>
     <row r="3">
@@ -478,45 +478,45 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.02053061060032778</v>
+        <v>0.02109294287051686</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02053061060032778</v>
+        <v>0.02069750800941871</v>
       </c>
       <c r="D3" t="n">
-        <v>0.02053061060032778</v>
+        <v>0.02090606863629583</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GradientBoostingRegressor</t>
+          <t>DecisionTreeRegressor</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.02403509963157869</v>
+        <v>0.01964285593392345</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02403509963157869</v>
+        <v>0.01943550176427579</v>
       </c>
       <c r="D4" t="n">
-        <v>0.02403509963157869</v>
+        <v>0.01949951016635842</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AdaBoostRegressor</t>
+          <t>MLPRegressor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1231791923315754</v>
+        <v>0.02987875011818537</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1231791923315754</v>
+        <v>0.02822797799994848</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1231791923315754</v>
+        <v>0.02344033290274598</v>
       </c>
     </row>
   </sheetData>
